--- a/biology/Mycologie/Leccinum_variicolor/Leccinum_variicolor.xlsx
+++ b/biology/Mycologie/Leccinum_variicolor/Leccinum_variicolor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolet ramoneur
 Leccinum variicolor, le Bolet ramoneur, est une espèce de champignons (Fungi) basidiomycètes du genre Leccinum dans la famille des Boletaceae. Il est caractérisé par son chapeau grisâtre marbré et son bout du pied taché de bleu.
@@ -512,11 +524,48 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Leccinum variicolor Watling[1]
-Synonymes
-Leccinum variicolor a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Leccinum variicolor Watling
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Leccinum_variicolor</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leccinum_variicolor</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leccinum variicolor a pour synonymes :
 Boletus oxydabilis Singer
 Boletus variicolor (Watling) Hlaváček
 Krombholzia scabra var. coloratipes Singer
@@ -534,43 +583,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Leccinum_variicolor</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Mycologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Leccinum_variicolor</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description du sporophore</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore à tubes, terminés par des pores, se sépare facilement de la chair du chapeau, avec un pied central assez épais et une chair compacte. Ils ont un chapeau rond, recouvert d'une cuticule, devenant convexe à mesure qu’ils vieillissent. Les caractéristiques macroscopiques de Leccinum variicolor, le Bolet ramoneur, sont les suivantes :
-Son chapeau est de couleur noir brunâtre à crème, uni ou marbré de taches plus claires[2].
-L'hyménophore présente des pores blanchâtres puis ochracé grisâtres[2],[3].
-Son stipe est blanc, orné de squamules brun noirâtres[2],[3].
-La chair est rosissante à la coupe et présente souvent des tâches bleu-vert dans le bas du stipe. Sa saveur est douce[2],[3].
-Caractéristiques microscopiques
-Ses spores mesurent 14-19 x 5-7 μm[2].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
@@ -592,14 +604,90 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore à tubes, terminés par des pores, se sépare facilement de la chair du chapeau, avec un pied central assez épais et une chair compacte. Ils ont un chapeau rond, recouvert d'une cuticule, devenant convexe à mesure qu’ils vieillissent. Les caractéristiques macroscopiques de Leccinum variicolor, le Bolet ramoneur, sont les suivantes :
+Son chapeau est de couleur noir brunâtre à crème, uni ou marbré de taches plus claires.
+L'hyménophore présente des pores blanchâtres puis ochracé grisâtres,.
+Son stipe est blanc, orné de squamules brun noirâtres,.
+La chair est rosissante à la coupe et présente souvent des tâches bleu-vert dans le bas du stipe. Sa saveur est douce,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Leccinum_variicolor</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leccinum_variicolor</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses spores mesurent 14-19 x 5-7 μm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Leccinum_variicolor</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leccinum_variicolor</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Variétés et formes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Leccinum variicolor var. bertauxii, cuticule de couleur brun-noir et chair immuable[3]. Chair non rosissante. Chapeau non décoloré par plages, un peu plus velouté-feutré, non méchuleux, plus sombre, brun-gris, brun sombre à presque noir. Stipe généralement avec un pseudo-réseau bien marqué dans la jeunesse, à squamules très tôt gris brun à brun noirâtre, grosses et denses, souvent jusqu'au sommet, moins grosses et plus espacées sous les tubes à maturité. Sous Betula et Populus tremula, souvent mêlés[4].
-Leccinum variicolor f. sphagnorum, forme pâle poussant dans les sphaignes[3]. Diffère par un chapeau devenant à maturité plus brun, brunâtre, parfois châtain, plus ou moins décoloré. Sous Betula pubescens avec Sphagnum[4].
-Leccinum variicolor f. astrostellatum, forme pâle poussant dans les sphaignes[3]. Diffère par un chapeau présentant un disque étoilé noir, brun-noir, plus ou moins dégradé jusqu'à brun-gris vers la marge. Chair rosissante[4].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Leccinum variicolor var. bertauxii, cuticule de couleur brun-noir et chair immuable. Chair non rosissante. Chapeau non décoloré par plages, un peu plus velouté-feutré, non méchuleux, plus sombre, brun-gris, brun sombre à presque noir. Stipe généralement avec un pseudo-réseau bien marqué dans la jeunesse, à squamules très tôt gris brun à brun noirâtre, grosses et denses, souvent jusqu'au sommet, moins grosses et plus espacées sous les tubes à maturité. Sous Betula et Populus tremula, souvent mêlés.
+Leccinum variicolor f. sphagnorum, forme pâle poussant dans les sphaignes. Diffère par un chapeau devenant à maturité plus brun, brunâtre, parfois châtain, plus ou moins décoloré. Sous Betula pubescens avec Sphagnum.
+Leccinum variicolor f. astrostellatum, forme pâle poussant dans les sphaignes. Diffère par un chapeau présentant un disque étoilé noir, brun-noir, plus ou moins dégradé jusqu'à brun-gris vers la marge. Chair rosissante.</t>
         </is>
       </c>
     </row>
